--- a/src/main/resources/testdata/CheckROITabInGF.xlsx
+++ b/src/main/resources/testdata/CheckROITabInGF.xlsx
@@ -12,7 +12,6 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1"/>
 </workbook>
 </file>
 
@@ -103,24 +102,6 @@
     <t>selenium_assession</t>
   </si>
   <si>
-    <t>1 caagtgccac tggctactag tgcaagtatg gctcgggtct ctgccaatgc agttgcactt
-       61 gttgcactcg tctccgttct tctcacgtat ggctgctgcg cccagtcgcc gctcaactac
-      121 accggctcct tggccaaatc ctccaaggct agctggtcat ggctccctgc caaggccaca
-      181 tggtacggcg cgcctaccgg cgccggtccc gatgacaacg gtggtgcttg cggctacaag
-      241 cacactaacc agtacccgtt catgtccatg acttcctgcg gcaacgagcc cctgttcaag
-      301 gacggcatgg gctgcggcgc ctgctaccag atacgatgcg tcaataacaa ggcctgctcc
-      361 ggcaagccgg agacggtcat gatcaccgac atgaactact accctgtggg caagtaccat
-      421 ttcgacctca gcggcacggc gttcggcgcc atggcgaagc ccggccagaa cgacaagctc
-      481 cgccacgccg gcattatcga catccagttc caaagggtgc catgcaatca tccgggcttg
-      541 aacgtgaact tccaggtcga gcggggctcc aaccccaact acctggccgt gctggtggag
-      601 ttcgcgaacc gggagggcac cgtggtgcag atggacctca tggagtcaag gaacggccgc
-      661 ccgacggggt actggacggc gatgcgccac tcgtggggcg ccatctggcg gatggactcc
-      721 aggcgccggc tgcagggccc cttctctctc cgcatccgca gcgaatccgg caagacgctg
-      781 gtggccaaac aagtcatccc ggccaactgg aggcccgaca cgaactaccg ttccaacgtc
-      841 cagttccgtt gattgctccg agcttccgat cgatcgacga agacgttgat taattcgg
-amakpgqndk lrhagiidiq  fqrvpcnhpg lnvnfqverg 181 snpnylavlv efanregtvv qmdlmesrng rptgywtamr hswgaiwrmd srrrlqgpfs 241 lrirsesgkt lvakqvipan wrpdtnyrsn vqfr</t>
-  </si>
-  <si>
     <t>Check ROI tab in Genetic Feature</t>
   </si>
   <si>
@@ -176,6 +157,9 @@
   </si>
   <si>
     <t>Genetic Feature</t>
+  </si>
+  <si>
+    <t>1 marvsanava lvalvsvllt ygccaqspln ytgslakssk aswswlpaka twygaptgag 61 pddnggacgy khtnqypfms mtscgneplf kdgmgcgacy qircvnnkac sgkpetvmit 121 dmnyypvgky hfdlsgtafg amakpgqndk lrhagiidiq  fqrvpcnhpg lnvnfqverg 181 snpnylavlv efanregtvv qmdlmesrng rptgywtamr hswgaiwrmd srrrlqgpfs 241 lrirsesgkt lvakqvipan wrpdtnyrsn vqfr</t>
   </si>
 </sst>
 </file>
@@ -519,8 +503,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="U1" workbookViewId="0">
-      <selection activeCell="Z1" sqref="Z1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -602,34 +586,34 @@
         <v>15</v>
       </c>
       <c r="Q1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="R1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="S1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="T1" t="s">
+        <v>33</v>
+      </c>
+      <c r="U1" t="s">
         <v>34</v>
       </c>
-      <c r="U1" t="s">
-        <v>35</v>
-      </c>
       <c r="V1" t="s">
+        <v>36</v>
+      </c>
+      <c r="W1" t="s">
         <v>37</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>38</v>
       </c>
-      <c r="X1" t="s">
-        <v>39</v>
-      </c>
       <c r="Y1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="Z1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="2" spans="1:26" ht="74.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -637,10 +621,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>28</v>
+        <v>47</v>
       </c>
       <c r="D2" t="s">
         <v>16</v>
@@ -682,19 +666,19 @@
         <v>27</v>
       </c>
       <c r="Q2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="R2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="S2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="T2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="U2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="V2">
         <v>10</v>
@@ -703,13 +687,13 @@
         <v>20</v>
       </c>
       <c r="X2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="Y2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="Z2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>
